--- a/IR_sensor/pin_sheet.xlsx
+++ b/IR_sensor/pin_sheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9FBA97-B2C7-47A4-B8A6-2FAF52C63A2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F52411-B48E-46AD-BBCE-1FC12CA3997B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>UNO PIN</t>
   </si>
@@ -203,6 +203,36 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>DB4</t>
+  </si>
+  <si>
+    <t>DB5</t>
+  </si>
+  <si>
+    <t>DB6</t>
+  </si>
+  <si>
+    <t>DB7</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>IR sensor</t>
+  </si>
+  <si>
+    <t>OUT</t>
   </si>
 </sst>
 </file>
@@ -529,19 +559,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C5:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.26171875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="6" width="17.68359375" customWidth="1"/>
-    <col min="7" max="7" width="25.26171875" customWidth="1"/>
+    <col min="5" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -561,7 +591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -575,7 +605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>8</v>
       </c>
@@ -589,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>12</v>
       </c>
@@ -603,7 +633,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
@@ -617,7 +653,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
@@ -631,7 +673,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
@@ -645,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
@@ -656,7 +704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
@@ -667,7 +715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
@@ -681,7 +729,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
@@ -695,7 +743,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
       <c r="E16" t="s">
         <v>21</v>
       </c>
@@ -709,7 +763,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
       <c r="E17" t="s">
         <v>22</v>
       </c>
@@ -723,7 +783,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
       <c r="E18" t="s">
         <v>23</v>
       </c>
@@ -737,7 +803,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
       <c r="E19" t="s">
         <v>24</v>
       </c>
@@ -751,7 +823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>25</v>
       </c>
@@ -765,7 +837,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>26</v>
       </c>
@@ -779,7 +851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>27</v>
       </c>
@@ -793,7 +865,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
       <c r="E23" t="s">
         <v>28</v>
       </c>
@@ -807,7 +885,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>29</v>
       </c>
@@ -821,7 +899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="5:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
         <v>20</v>
       </c>
@@ -832,7 +910,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="5:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
@@ -843,7 +921,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="5:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>20</v>
       </c>
@@ -854,7 +932,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>30</v>
       </c>
@@ -868,7 +946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>31</v>
       </c>
@@ -882,7 +960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>32</v>
       </c>
@@ -896,7 +974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>33</v>
       </c>
@@ -910,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>34</v>
       </c>
@@ -924,7 +1002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>35</v>
       </c>

--- a/IR_sensor/pin_sheet.xlsx
+++ b/IR_sensor/pin_sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F52411-B48E-46AD-BBCE-1FC12CA3997B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8DFF79-72B9-4D9F-9134-670CCABB044A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="C5:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
